--- a/team_specific_matrix/Texas Tech_B.xlsx
+++ b/team_specific_matrix/Texas Tech_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2131147540983606</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="C2">
-        <v>0.5300546448087432</v>
+        <v>0.5198019801980198</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03825136612021858</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.00546448087431694</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="P2">
-        <v>0.1147540983606557</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09836065573770492</v>
+        <v>0.1089108910891089</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009433962264150943</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C3">
-        <v>0.04716981132075472</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03773584905660377</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7641509433962265</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1415094339622641</v>
+        <v>0.1293103448275862</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.72</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02068965517241379</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.006896551724137931</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="F6">
-        <v>0.06896551724137931</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2689655172413793</v>
+        <v>0.2696629213483146</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02068965517241379</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2068965517241379</v>
+        <v>0.1966292134831461</v>
       </c>
       <c r="R6">
-        <v>0.04137931034482759</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="S6">
-        <v>0.3655172413793104</v>
+        <v>0.3707865168539326</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1232876712328767</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0136986301369863</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E7">
-        <v>0.00684931506849315</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="F7">
-        <v>0.0547945205479452</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1780821917808219</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00684931506849315</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1986301369863014</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="R7">
-        <v>0.0821917808219178</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="S7">
-        <v>0.3356164383561644</v>
+        <v>0.3709677419354839</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05882352941176471</v>
+        <v>0.05121293800539083</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01633986928104575</v>
+        <v>0.01617250673854448</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0718954248366013</v>
+        <v>0.06199460916442048</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1535947712418301</v>
+        <v>0.1482479784366577</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0196078431372549</v>
+        <v>0.0215633423180593</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1633986928104575</v>
+        <v>0.1725067385444744</v>
       </c>
       <c r="R8">
-        <v>0.1405228758169935</v>
+        <v>0.137466307277628</v>
       </c>
       <c r="S8">
-        <v>0.3758169934640523</v>
+        <v>0.3908355795148248</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08602150537634409</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01612903225806452</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E9">
-        <v>0.005376344086021506</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="F9">
-        <v>0.03225806451612903</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1344086021505376</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01075268817204301</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1827956989247312</v>
+        <v>0.1813725490196078</v>
       </c>
       <c r="R9">
-        <v>0.07526881720430108</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.4569892473118279</v>
+        <v>0.446078431372549</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09761634506242906</v>
+        <v>0.09040074557315937</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0170261066969353</v>
+        <v>0.01584342963653309</v>
       </c>
       <c r="E10">
-        <v>0.002270147559591373</v>
+        <v>0.001863932898415657</v>
       </c>
       <c r="F10">
-        <v>0.06356413166855845</v>
+        <v>0.06616961789375582</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1509648127128263</v>
+        <v>0.1509785647716682</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01135073779795687</v>
+        <v>0.009319664492078284</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2077185017026107</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R10">
-        <v>0.08853575482406356</v>
+        <v>0.08014911463187326</v>
       </c>
       <c r="S10">
-        <v>0.3609534619750284</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1111111111111111</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06060606060606061</v>
+        <v>0.06072874493927125</v>
       </c>
       <c r="K11">
-        <v>0.1717171717171717</v>
+        <v>0.1659919028340081</v>
       </c>
       <c r="L11">
-        <v>0.6313131313131313</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02525252525252525</v>
+        <v>0.03238866396761134</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8059701492537313</v>
+        <v>0.8143712574850299</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1268656716417911</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="K12">
-        <v>0.01492537313432836</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="L12">
-        <v>0.02985074626865672</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02238805970149254</v>
+        <v>0.02395209580838323</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.71875</v>
+        <v>0.725</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.21875</v>
+        <v>0.225</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02580645161290323</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1225806451612903</v>
+        <v>0.1105527638190955</v>
       </c>
       <c r="I15">
-        <v>0.1161290322580645</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="J15">
-        <v>0.3290322580645161</v>
+        <v>0.321608040201005</v>
       </c>
       <c r="K15">
-        <v>0.08387096774193549</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01290322580645161</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09032258064516129</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2193548387096774</v>
+        <v>0.2462311557788945</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1896551724137931</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="I16">
-        <v>0.09482758620689655</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="J16">
-        <v>0.396551724137931</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K16">
-        <v>0.09482758620689655</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.05172413793103448</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="N16">
-        <v>0.008620689655172414</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="O16">
-        <v>0.05172413793103448</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1120689655172414</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01246105919003115</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1931464174454829</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="I17">
-        <v>0.1339563862928349</v>
+        <v>0.1185567010309278</v>
       </c>
       <c r="J17">
-        <v>0.3613707165109034</v>
+        <v>0.3711340206185567</v>
       </c>
       <c r="K17">
-        <v>0.102803738317757</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02803738317757009</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="N17">
-        <v>0.003115264797507788</v>
+        <v>0.002577319587628866</v>
       </c>
       <c r="O17">
-        <v>0.07476635514018691</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09034267912772585</v>
+        <v>0.1108247422680412</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03333333333333333</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2133333333333333</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I18">
-        <v>0.1333333333333333</v>
+        <v>0.1286549707602339</v>
       </c>
       <c r="J18">
-        <v>0.38</v>
+        <v>0.3742690058479532</v>
       </c>
       <c r="K18">
-        <v>0.09333333333333334</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01333333333333333</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03333333333333333</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01066350710900474</v>
+        <v>0.01038715769593957</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1931279620853081</v>
+        <v>0.1954674220963173</v>
       </c>
       <c r="I19">
-        <v>0.1101895734597156</v>
+        <v>0.09915014164305949</v>
       </c>
       <c r="J19">
-        <v>0.3767772511848341</v>
+        <v>0.3748819641170916</v>
       </c>
       <c r="K19">
-        <v>0.1030805687203791</v>
+        <v>0.113314447592068</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01658767772511848</v>
+        <v>0.0169971671388102</v>
       </c>
       <c r="N19">
-        <v>0.001184834123222749</v>
+        <v>0.0009442870632672333</v>
       </c>
       <c r="O19">
-        <v>0.07819905213270142</v>
+        <v>0.08120868744098206</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1101895734597156</v>
+        <v>0.1076487252124646</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Texas Tech_B.xlsx
+++ b/team_specific_matrix/Texas Tech_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2178217821782178</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C2">
-        <v>0.5198019801980198</v>
+        <v>0.5466101694915254</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0396039603960396</v>
+        <v>0.03813559322033899</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004950495049504951</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="P2">
-        <v>0.1089108910891089</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1089108910891089</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008620689655172414</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C3">
-        <v>0.0603448275862069</v>
+        <v>0.04895104895104895</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04310344827586207</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7586206896551724</v>
+        <v>0.7552447552447552</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1293103448275862</v>
+        <v>0.1468531468531468</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7666666666666667</v>
+        <v>0.71875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01685393258426966</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.005617977528089887</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="F6">
-        <v>0.07303370786516854</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2696629213483146</v>
+        <v>0.2801932367149759</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02808988764044944</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1966292134831461</v>
+        <v>0.1835748792270532</v>
       </c>
       <c r="R6">
-        <v>0.03932584269662921</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="S6">
-        <v>0.3707865168539326</v>
+        <v>0.3623188405797101</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1075268817204301</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01612903225806452</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E7">
-        <v>0.005376344086021506</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="F7">
-        <v>0.04838709677419355</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1774193548387097</v>
+        <v>0.178743961352657</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01612903225806452</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1881720430107527</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R7">
-        <v>0.06989247311827956</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="S7">
-        <v>0.3709677419354839</v>
+        <v>0.3768115942028986</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05121293800539083</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01617250673854448</v>
+        <v>0.01707317073170732</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06199460916442048</v>
+        <v>0.06585365853658537</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1482479784366577</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0215633423180593</v>
+        <v>0.02195121951219512</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1725067385444744</v>
+        <v>0.1780487804878049</v>
       </c>
       <c r="R8">
-        <v>0.137466307277628</v>
+        <v>0.1317073170731707</v>
       </c>
       <c r="S8">
-        <v>0.3908355795148248</v>
+        <v>0.3804878048780488</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08333333333333333</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0196078431372549</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E9">
-        <v>0.004901960784313725</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="F9">
-        <v>0.03431372549019608</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1323529411764706</v>
+        <v>0.1260869565217391</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01470588235294118</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1813725490196078</v>
+        <v>0.1695652173913043</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="S9">
-        <v>0.446078431372549</v>
+        <v>0.4652173913043478</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09040074557315937</v>
+        <v>0.0936205468102734</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01584342963653309</v>
+        <v>0.01491300745650373</v>
       </c>
       <c r="E10">
-        <v>0.001863932898415657</v>
+        <v>0.001657000828500414</v>
       </c>
       <c r="F10">
-        <v>0.06616961789375582</v>
+        <v>0.06710853355426678</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1509785647716682</v>
+        <v>0.1425020712510356</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009319664492078284</v>
+        <v>0.01077050538525269</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2068965517241379</v>
+        <v>0.2162386081193041</v>
       </c>
       <c r="R10">
-        <v>0.08014911463187326</v>
+        <v>0.07787903893951947</v>
       </c>
       <c r="S10">
-        <v>0.3783783783783784</v>
+        <v>0.3753106876553438</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1093117408906883</v>
+        <v>0.1107142857142857</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06072874493927125</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="K11">
-        <v>0.1659919028340081</v>
+        <v>0.1678571428571428</v>
       </c>
       <c r="L11">
-        <v>0.631578947368421</v>
+        <v>0.6214285714285714</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03238866396761134</v>
+        <v>0.03214285714285714</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8143712574850299</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1137724550898204</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="K12">
-        <v>0.01197604790419162</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="L12">
-        <v>0.03592814371257485</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02395209580838323</v>
+        <v>0.02162162162162162</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.725</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.225</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03517587939698492</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1105527638190955</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="I15">
-        <v>0.09547738693467336</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="J15">
-        <v>0.321608040201005</v>
+        <v>0.3187772925764192</v>
       </c>
       <c r="K15">
-        <v>0.08040201005025126</v>
+        <v>0.09170305676855896</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01507537688442211</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09547738693467336</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2462311557788945</v>
+        <v>0.2270742358078603</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007692307692307693</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2153846153846154</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="I16">
-        <v>0.09230769230769231</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="J16">
-        <v>0.3846153846153846</v>
+        <v>0.3774834437086093</v>
       </c>
       <c r="K16">
-        <v>0.09230769230769231</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04615384615384616</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="N16">
-        <v>0.007692307692307693</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="O16">
-        <v>0.04615384615384616</v>
+        <v>0.05960264900662252</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1076923076923077</v>
+        <v>0.09933774834437085</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0154639175257732</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1855670103092784</v>
+        <v>0.1791383219954649</v>
       </c>
       <c r="I17">
-        <v>0.1185567010309278</v>
+        <v>0.1179138321995465</v>
       </c>
       <c r="J17">
-        <v>0.3711340206185567</v>
+        <v>0.3718820861678004</v>
       </c>
       <c r="K17">
-        <v>0.09278350515463918</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03092783505154639</v>
+        <v>0.02947845804988662</v>
       </c>
       <c r="N17">
-        <v>0.002577319587628866</v>
+        <v>0.002267573696145125</v>
       </c>
       <c r="O17">
-        <v>0.07216494845360824</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1108247422680412</v>
+        <v>0.108843537414966</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02923976608187134</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2105263157894737</v>
+        <v>0.1947368421052632</v>
       </c>
       <c r="I18">
-        <v>0.1286549707602339</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J18">
-        <v>0.3742690058479532</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="K18">
-        <v>0.0935672514619883</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01754385964912281</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04093567251461988</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1052631578947368</v>
+        <v>0.1157894736842105</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01038715769593957</v>
+        <v>0.01094276094276094</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1954674220963173</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="I19">
-        <v>0.09915014164305949</v>
+        <v>0.09764309764309764</v>
       </c>
       <c r="J19">
-        <v>0.3748819641170916</v>
+        <v>0.3779461279461279</v>
       </c>
       <c r="K19">
-        <v>0.113314447592068</v>
+        <v>0.111952861952862</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0169971671388102</v>
+        <v>0.01683501683501683</v>
       </c>
       <c r="N19">
-        <v>0.0009442870632672333</v>
+        <v>0.0008417508417508417</v>
       </c>
       <c r="O19">
-        <v>0.08120868744098206</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1076487252124646</v>
+        <v>0.1085858585858586</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Texas Tech_B.xlsx
+++ b/team_specific_matrix/Texas Tech_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2033898305084746</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="C2">
-        <v>0.5466101694915254</v>
+        <v>0.5447154471544715</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03813559322033899</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.00423728813559322</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="P2">
-        <v>0.1059322033898305</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1016949152542373</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C3">
-        <v>0.04895104895104895</v>
+        <v>0.0472972972972973</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04195804195804196</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7552447552447552</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1468531468531468</v>
+        <v>0.1486486486486487</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.71875</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.21875</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02415458937198068</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.004830917874396135</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="F6">
-        <v>0.07729468599033816</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2801932367149759</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02415458937198068</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1835748792270532</v>
+        <v>0.1813953488372093</v>
       </c>
       <c r="R6">
-        <v>0.04347826086956522</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="S6">
-        <v>0.3623188405797101</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.107981220657277</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01449275362318841</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E7">
-        <v>0.004830917874396135</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="F7">
-        <v>0.04347826086956522</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.178743961352657</v>
+        <v>0.1784037558685446</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01449275362318841</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1739130434782609</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="R7">
-        <v>0.0821256038647343</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="S7">
-        <v>0.3768115942028986</v>
+        <v>0.3802816901408451</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05853658536585366</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01707317073170732</v>
+        <v>0.01864801864801865</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06585365853658537</v>
+        <v>0.0675990675990676</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1463414634146341</v>
+        <v>0.1421911421911422</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02195121951219512</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1780487804878049</v>
+        <v>0.1771561771561772</v>
       </c>
       <c r="R8">
-        <v>0.1317073170731707</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="S8">
-        <v>0.3804878048780488</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08695652173913043</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01739130434782609</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="E9">
-        <v>0.004347826086956522</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="F9">
-        <v>0.03043478260869565</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1260869565217391</v>
+        <v>0.1223628691983122</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01739130434782609</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1695652173913043</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="R9">
-        <v>0.08260869565217391</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="S9">
-        <v>0.4652173913043478</v>
+        <v>0.4683544303797468</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0936205468102734</v>
+        <v>0.0936</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01491300745650373</v>
+        <v>0.0144</v>
       </c>
       <c r="E10">
-        <v>0.001657000828500414</v>
+        <v>0.0016</v>
       </c>
       <c r="F10">
-        <v>0.06710853355426678</v>
+        <v>0.068</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1425020712510356</v>
+        <v>0.144</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01077050538525269</v>
+        <v>0.0104</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2162386081193041</v>
+        <v>0.2144</v>
       </c>
       <c r="R10">
-        <v>0.07787903893951947</v>
+        <v>0.0776</v>
       </c>
       <c r="S10">
-        <v>0.3753106876553438</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1107142857142857</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06785714285714285</v>
+        <v>0.06643356643356643</v>
       </c>
       <c r="K11">
-        <v>0.1678571428571428</v>
+        <v>0.1643356643356643</v>
       </c>
       <c r="L11">
-        <v>0.6214285714285714</v>
+        <v>0.6258741258741258</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03214285714285714</v>
+        <v>0.03146853146853147</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8108108108108109</v>
+        <v>0.8115183246073299</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1243243243243243</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="K12">
-        <v>0.01081081081081081</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="L12">
-        <v>0.03243243243243243</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02162162162162162</v>
+        <v>0.02094240837696335</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7441860465116279</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2093023255813954</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04366812227074236</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1135371179039301</v>
+        <v>0.1106382978723404</v>
       </c>
       <c r="I15">
-        <v>0.09606986899563319</v>
+        <v>0.09787234042553192</v>
       </c>
       <c r="J15">
-        <v>0.3187772925764192</v>
+        <v>0.3276595744680851</v>
       </c>
       <c r="K15">
-        <v>0.09170305676855896</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01310043668122271</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09606986899563319</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2270742358078603</v>
+        <v>0.225531914893617</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006622516556291391</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2119205298013245</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="I16">
-        <v>0.09933774834437085</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="J16">
-        <v>0.3774834437086093</v>
+        <v>0.3734177215189873</v>
       </c>
       <c r="K16">
-        <v>0.09933774834437085</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03973509933774835</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="N16">
-        <v>0.006622516556291391</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="O16">
-        <v>0.05960264900662252</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09933774834437085</v>
+        <v>0.1139240506329114</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02040816326530612</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1791383219954649</v>
+        <v>0.1832229580573951</v>
       </c>
       <c r="I17">
-        <v>0.1179138321995465</v>
+        <v>0.1169977924944812</v>
       </c>
       <c r="J17">
-        <v>0.3718820861678004</v>
+        <v>0.3686534216335541</v>
       </c>
       <c r="K17">
-        <v>0.09523809523809523</v>
+        <v>0.09713024282560706</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02947845804988662</v>
+        <v>0.02869757174392936</v>
       </c>
       <c r="N17">
-        <v>0.002267573696145125</v>
+        <v>0.002207505518763797</v>
       </c>
       <c r="O17">
-        <v>0.07482993197278912</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.108843537414966</v>
+        <v>0.1103752759381898</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1947368421052632</v>
+        <v>0.2102564102564103</v>
       </c>
       <c r="I18">
-        <v>0.131578947368421</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="J18">
-        <v>0.3842105263157894</v>
+        <v>0.3794871794871795</v>
       </c>
       <c r="K18">
-        <v>0.08421052631578947</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01578947368421053</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04736842105263158</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1157894736842105</v>
+        <v>0.1128205128205128</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01094276094276094</v>
+        <v>0.01050080775444265</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1944444444444444</v>
+        <v>0.1954765751211632</v>
       </c>
       <c r="I19">
-        <v>0.09764309764309764</v>
+        <v>0.09693053311793215</v>
       </c>
       <c r="J19">
-        <v>0.3779461279461279</v>
+        <v>0.3796445880452343</v>
       </c>
       <c r="K19">
-        <v>0.111952861952862</v>
+        <v>0.1098546042003231</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01683501683501683</v>
+        <v>0.01696284329563813</v>
       </c>
       <c r="N19">
-        <v>0.0008417508417508417</v>
+        <v>0.0008077544426494346</v>
       </c>
       <c r="O19">
-        <v>0.08080808080808081</v>
+        <v>0.0815831987075929</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1085858585858586</v>
+        <v>0.1082390953150242</v>
       </c>
     </row>
   </sheetData>
